--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,9 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>X, кВ</t>
+  </si>
+  <si>
+    <t>(9.479126930236816-1.8123786449432373j)</t>
+  </si>
+  <si>
+    <t>(9.505853652954102-1.7816494703292847j)</t>
+  </si>
+  <si>
+    <t>(9.505578994750977-1.7814961671829224j)</t>
+  </si>
+  <si>
+    <t>(9.505574226379395-1.7814922332763672j)</t>
+  </si>
+  <si>
+    <t>(9.50544548034668-1.781421422958374j)</t>
+  </si>
+  <si>
+    <t>(9.505839347839355-1.7816375494003296j)</t>
+  </si>
+  <si>
+    <t>(9.479260444641113-1.812453269958496j)</t>
+  </si>
+  <si>
+    <t>(9.557052612304688-1.7198511362075806j)</t>
+  </si>
+  <si>
+    <t>(9.77938175201416-0.9463918209075928j)</t>
+  </si>
+  <si>
+    <t>(9.68350601196289-0.9371135830879211j)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,7 +419,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -397,7 +427,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -405,8 +435,64 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,33 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>X, кВ</t>
   </si>
   <si>
-    <t>(9.479126930236816-1.8123786449432373j)</t>
-  </si>
-  <si>
-    <t>(9.505853652954102-1.7816494703292847j)</t>
-  </si>
-  <si>
-    <t>(9.505578994750977-1.7814961671829224j)</t>
-  </si>
-  <si>
-    <t>(9.505574226379395-1.7814922332763672j)</t>
-  </si>
-  <si>
-    <t>(9.50544548034668-1.781421422958374j)</t>
-  </si>
-  <si>
-    <t>(9.505839347839355-1.7816375494003296j)</t>
-  </si>
-  <si>
-    <t>(9.479260444641113-1.812453269958496j)</t>
-  </si>
-  <si>
-    <t>(9.557052612304688-1.7198511362075806j)</t>
+    <t>0j</t>
+  </si>
+  <si>
+    <t>(10.079788208007812-0.9526878595352173j)</t>
+  </si>
+  <si>
+    <t>(10.079642295837402-0.9526230692863464j)</t>
+  </si>
+  <si>
+    <t>(10.499926567077637-0.004833496641367674j)</t>
+  </si>
+  <si>
+    <t>(10.499927520751953-0.004833498038351536j)</t>
+  </si>
+  <si>
+    <t>(10.079632759094238-0.9526546597480774j)</t>
+  </si>
+  <si>
+    <t>(10.499960899353027-0.004665379412472248j)</t>
   </si>
   <si>
     <t>(9.77938175201416-0.9463918209075928j)</t>
@@ -452,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -484,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -492,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
